--- a/Bibsam_tidskriftslistor/scifree_data_aps_hybrid.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_aps_hybrid.xlsx
@@ -1,25 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{5E93F085-F8FB-47CB-B89D-CC10E7D3E308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{604650EF-9C8F-4EF0-92DE-BA3162601156}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B30E33D3-DC04-421A-AB42-DC42D161F60D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+  <si>
+    <t>Imprint</t>
+  </si>
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -39,80 +59,104 @@
     <t>CC License options</t>
   </si>
   <si>
-    <t>Imprint</t>
+    <t>CC-BY</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prmaterials</t>
+  </si>
+  <si>
+    <t>Physical Review Materials</t>
+  </si>
+  <si>
+    <t>2475-9953</t>
   </si>
   <si>
     <t>American Physical Society</t>
   </si>
   <si>
+    <t>https://journals.aps.org/prl</t>
+  </si>
+  <si>
+    <t>Physical Review Letters</t>
+  </si>
+  <si>
+    <t>0031-9007</t>
+  </si>
+  <si>
+    <t>1079-7114</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prfluids</t>
+  </si>
+  <si>
+    <t>Physical Review Fluids </t>
+  </si>
+  <si>
+    <t>2469-990X</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/pre</t>
+  </si>
+  <si>
+    <t>Physical Review E</t>
+  </si>
+  <si>
+    <t>2470-0053</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prd</t>
+  </si>
+  <si>
+    <t>Physical Review D</t>
+  </si>
+  <si>
+    <t>2470-0029</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prc</t>
+  </si>
+  <si>
+    <t>Physical Review C</t>
+  </si>
+  <si>
+    <t>2469-9993</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prb</t>
+  </si>
+  <si>
+    <t>Physical Review B</t>
+  </si>
+  <si>
+    <t>2469-9969</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prapplied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical Review Applied </t>
+  </si>
+  <si>
+    <t>2331-7019</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/pra</t>
+  </si>
+  <si>
+    <t>Physical Review A</t>
+  </si>
+  <si>
     <t>2469-9934</t>
-  </si>
-  <si>
-    <t>Physical Review A</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>2469-9969</t>
-  </si>
-  <si>
-    <t>Physical Review B</t>
-  </si>
-  <si>
-    <t>2469-9993</t>
-  </si>
-  <si>
-    <t>Physical Review C</t>
-  </si>
-  <si>
-    <t>2470-0029</t>
-  </si>
-  <si>
-    <t>Physical Review D</t>
-  </si>
-  <si>
-    <t>2470-0053</t>
-  </si>
-  <si>
-    <t>Physical Review E</t>
-  </si>
-  <si>
-    <t>2331-7019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical Review Applied </t>
-  </si>
-  <si>
-    <t>2469-990X</t>
-  </si>
-  <si>
-    <t>Physical Review Fluids </t>
-  </si>
-  <si>
-    <t>1079-7114</t>
-  </si>
-  <si>
-    <t>0031-9007</t>
-  </si>
-  <si>
-    <t>Physical Review Letters</t>
-  </si>
-  <si>
-    <t>2475-9953</t>
-  </si>
-  <si>
-    <t>Physical Review Materials</t>
-  </si>
-  <si>
-    <t>CC-BY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,24 +164,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -145,18 +187,382 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -167,6 +573,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9BD23FE-4BF4-4983-A150-C2E92847EC70}" name="Table1" displayName="Table1" ref="A1:G10" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="8">
+  <autoFilter ref="A1:G10" xr:uid="{A9BD23FE-4BF4-4983-A150-C2E92847EC70}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C50C3ECF-1574-46DC-AEDB-602086813AC4}" name="Imprint" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{65765283-C65C-49B7-A243-3C20C636656B}" name="ISSN Electronic" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{02C33BB7-1A64-4D9D-8716-68DDCC4B6DAB}" name="ISSN Print" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{6D2CB992-35B0-40AC-87E5-6BACAD0F5888}" name="Journal Name" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{AABE5007-6D34-4DC1-A34C-B08A4F014324}" name="JournalURL" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A0D0D05D-DC82-40B6-BCE5-B6092264E735}" name="Publishing model" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{87761FAC-D544-4D8E-A43C-BA4E41092117}" name="CC License options" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -186,7 +608,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -198,7 +620,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -245,6 +667,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -280,6 +719,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,201 +887,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8594BDC6-AA7C-49A9-A0B7-300A374C5E09}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>